--- a/biology/Botanique/Conservation_(botanique)/Conservation_(botanique).xlsx
+++ b/biology/Botanique/Conservation_(botanique)/Conservation_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En nomenclature botanique, la conservation (en latin nomen conservandum, abrégé nom. cons.) vise à la sauvegarde des noms botaniques qui contribuent le mieux à la stabilité de la nomenclature[1]. Les principes de la conservation sont contenus dans l'article 14 du Code international de nomenclature botanique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En nomenclature botanique, la conservation (en latin nomen conservandum, abrégé nom. cons.) vise à la sauvegarde des noms botaniques qui contribuent le mieux à la stabilité de la nomenclature. Les principes de la conservation sont contenus dans l'article 14 du Code international de nomenclature botanique.
 Alors que le rejet est possible pour tout nom de rang (article 56), la conservation n'est possible que pour les noms de familles, de genres et d'espèces.
 La conservation peut être limitée à l'orthographe d'un nom : Euonymus (et non Evonymus), Guaiacum (et non Guajacum), Hieronyma (et non Hyeronima ni Hieronima), etc. Il est également possible de conserver le type d'un nom pour fixer l'application de ce nom à un taxon particulier.
 La procédure commence avec une proposition en journal Taxon. Cette proposition doit présenter le cas pour et le cas contre la conservation de ce nom.
